--- a/Documentation/OBD II PIDs.xlsx
+++ b/Documentation/OBD II PIDs.xlsx
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'KDS PID'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'OBD II PID'!$A$1:$J$142</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Supported PIDs Z1000'!$A$1:$E$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OBD II PID'!$A$1:$J$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Supported PIDs Z1000'!$A$1:$E$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Supported PIDs Z750'!$A$1:$F$165</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="734">
   <si>
     <t>PID (hex)</t>
   </si>
@@ -1948,15 +1948,9 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Volt</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>A/2 = 0.Voltage</t>
-  </si>
-  <si>
     <t>Throttle Opening</t>
   </si>
   <si>
@@ -2219,6 +2213,27 @@
   </si>
   <si>
     <t>81 = 0% ??? = 100%</t>
+  </si>
+  <si>
+    <t>SubThrottle</t>
+  </si>
+  <si>
+    <t>(Geht nicht mehr…)</t>
+  </si>
+  <si>
+    <t>Choke???</t>
+  </si>
+  <si>
+    <t>((a-Minimum) *100) / (Maximum - Minimum)</t>
+  </si>
+  <si>
+    <t>Min. 201, Max. 405</t>
+  </si>
+  <si>
+    <t>Min. 81, Max. (???) 189</t>
+  </si>
+  <si>
+    <t>Air Pressure (Inlet / Manifold)</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2348,6 +2363,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2715,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,10 +3336,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="23">
         <v>14</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3339,8 +3355,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3364,8 +3380,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="7" t="s">
         <v>68</v>
       </c>
@@ -3379,10 +3395,10 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>15</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="24">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3398,8 +3414,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
@@ -3423,8 +3439,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3438,10 +3454,10 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="23">
         <v>16</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="24">
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3457,8 +3473,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7" t="s">
         <v>64</v>
       </c>
@@ -3482,8 +3498,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -3497,10 +3513,10 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="23">
         <v>17</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="24">
         <v>2</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3516,8 +3532,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="7" t="s">
         <v>64</v>
       </c>
@@ -3541,8 +3557,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="7" t="s">
         <v>68</v>
       </c>
@@ -3556,10 +3572,10 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34" s="23">
         <v>18</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="24">
         <v>2</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3575,8 +3591,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="7" t="s">
         <v>64</v>
       </c>
@@ -3600,8 +3616,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="7" t="s">
         <v>68</v>
       </c>
@@ -3615,10 +3631,10 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="A37" s="23">
         <v>19</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="24">
         <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3634,8 +3650,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="7" t="s">
         <v>64</v>
       </c>
@@ -3659,8 +3675,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
@@ -3674,10 +3690,10 @@
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="24">
         <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3693,8 +3709,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="7" t="s">
         <v>64</v>
       </c>
@@ -3718,8 +3734,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="7" t="s">
         <v>68</v>
       </c>
@@ -3733,10 +3749,10 @@
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="24">
         <v>2</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3752,8 +3768,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="7" t="s">
         <v>64</v>
       </c>
@@ -3777,8 +3793,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="7" t="s">
         <v>68</v>
       </c>
@@ -3832,18 +3848,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="23">
-        <v>1</v>
-      </c>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="24">
+        <v>1</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="7" t="s">
         <v>86</v>
       </c>
@@ -3855,12 +3871,12 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="7" t="s">
         <v>87</v>
       </c>
@@ -3990,10 +4006,10 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="23">
         <v>24</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="24">
         <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -4013,8 +4029,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="7" t="s">
         <v>104</v>
       </c>
@@ -4035,8 +4051,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="7" t="s">
         <v>107</v>
       </c>
@@ -4046,10 +4062,10 @@
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="23">
         <v>25</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="24">
         <v>4</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -4072,8 +4088,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="7" t="s">
         <v>104</v>
       </c>
@@ -4091,8 +4107,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="7" t="s">
         <v>107</v>
       </c>
@@ -4102,10 +4118,10 @@
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="23">
         <v>26</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="24">
         <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -4125,8 +4141,8 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="7" t="s">
         <v>104</v>
       </c>
@@ -4147,8 +4163,8 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="7" t="s">
         <v>107</v>
       </c>
@@ -4158,10 +4174,10 @@
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="23">
         <v>27</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="24">
         <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -4184,8 +4200,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="7" t="s">
         <v>104</v>
       </c>
@@ -4203,8 +4219,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="7" t="s">
         <v>107</v>
       </c>
@@ -4214,10 +4230,10 @@
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
+      <c r="A67" s="23">
         <v>28</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="24">
         <v>4</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -4237,8 +4253,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="7" t="s">
         <v>104</v>
       </c>
@@ -4259,8 +4275,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="7" t="s">
         <v>107</v>
       </c>
@@ -4270,10 +4286,10 @@
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="23">
         <v>29</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="24">
         <v>4</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4293,8 +4309,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="7" t="s">
         <v>104</v>
       </c>
@@ -4315,8 +4331,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="7" t="s">
         <v>107</v>
       </c>
@@ -4326,10 +4342,10 @@
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="24">
         <v>4</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -4349,8 +4365,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="7" t="s">
         <v>104</v>
       </c>
@@ -4371,8 +4387,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="7" t="s">
         <v>107</v>
       </c>
@@ -4382,10 +4398,10 @@
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="24">
         <v>4</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -4405,8 +4421,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="7" t="s">
         <v>104</v>
       </c>
@@ -4427,8 +4443,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="7" t="s">
         <v>107</v>
       </c>
@@ -4646,10 +4662,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
+      <c r="A87" s="23">
         <v>34</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="24">
         <v>4</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -4672,8 +4688,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="7" t="s">
         <v>104</v>
       </c>
@@ -4691,8 +4707,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="7" t="s">
         <v>139</v>
       </c>
@@ -4702,10 +4718,10 @@
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
+      <c r="A90" s="23">
         <v>35</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="24">
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -4728,8 +4744,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="7" t="s">
         <v>104</v>
       </c>
@@ -4747,8 +4763,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="7" t="s">
         <v>139</v>
       </c>
@@ -4758,10 +4774,10 @@
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
+      <c r="A93" s="23">
         <v>36</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="24">
         <v>4</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -4781,8 +4797,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="7" t="s">
         <v>104</v>
       </c>
@@ -4800,8 +4816,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="7" t="s">
         <v>139</v>
       </c>
@@ -4811,10 +4827,10 @@
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="23">
         <v>37</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="24">
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -4837,8 +4853,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="7" t="s">
         <v>104</v>
       </c>
@@ -4856,8 +4872,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="7" t="s">
         <v>139</v>
       </c>
@@ -4867,10 +4883,10 @@
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="22">
+      <c r="A99" s="23">
         <v>38</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="24">
         <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
@@ -4893,8 +4909,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="7" t="s">
         <v>104</v>
       </c>
@@ -4912,8 +4928,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="7" t="s">
         <v>139</v>
       </c>
@@ -4923,10 +4939,10 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="22">
+      <c r="A102" s="23">
         <v>39</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="24">
         <v>4</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -4949,8 +4965,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="7" t="s">
         <v>104</v>
       </c>
@@ -4968,8 +4984,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="7" t="s">
         <v>139</v>
       </c>
@@ -4979,10 +4995,10 @@
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="24">
         <v>4</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -5005,8 +5021,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="7" t="s">
         <v>104</v>
       </c>
@@ -5024,8 +5040,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="7" t="s">
         <v>139</v>
       </c>
@@ -5035,10 +5051,10 @@
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="24">
         <v>4</v>
       </c>
       <c r="C108" s="7" t="s">
@@ -5061,8 +5077,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="7" t="s">
         <v>104</v>
       </c>
@@ -5080,8 +5096,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="7" t="s">
         <v>139</v>
       </c>
@@ -5091,25 +5107,25 @@
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B111" s="24">
         <v>2</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D111" s="24">
         <v>-40</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="F111" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="24" t="s">
+      <c r="G111" s="25" t="s">
         <v>146</v>
       </c>
       <c r="H111">
@@ -5117,36 +5133,36 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="23">
+      <c r="B113" s="24">
         <v>2</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="24">
         <v>-40</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="G113" s="25" t="s">
         <v>146</v>
       </c>
       <c r="H113">
@@ -5154,36 +5170,36 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="24">
         <v>2</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D115" s="24">
         <v>-40</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F115" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G115" s="25" t="s">
         <v>146</v>
       </c>
       <c r="H115">
@@ -5191,36 +5207,36 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="24">
         <v>2</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D117" s="24">
         <v>-40</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="25" t="s">
         <v>146</v>
       </c>
       <c r="H117">
@@ -5228,15 +5244,15 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
@@ -5764,22 +5780,22 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22">
+      <c r="A140" s="23">
         <v>55</v>
       </c>
-      <c r="B140" s="23">
+      <c r="B140" s="24">
         <v>2</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D140" s="23">
+      <c r="D140" s="24">
         <v>-100</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F140" s="23" t="s">
+      <c r="F140" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G140" s="7" t="s">
@@ -5790,33 +5806,33 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
       <c r="G141" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="22">
+      <c r="A142" s="23">
         <v>56</v>
       </c>
-      <c r="B142" s="23">
+      <c r="B142" s="24">
         <v>2</v>
       </c>
-      <c r="C142" s="24" t="s">
+      <c r="C142" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="24">
         <v>-100</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G142" s="7" t="s">
@@ -5827,33 +5843,33 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
       <c r="G143" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="22">
+      <c r="A144" s="23">
         <v>57</v>
       </c>
-      <c r="B144" s="23">
+      <c r="B144" s="24">
         <v>2</v>
       </c>
-      <c r="C144" s="24" t="s">
+      <c r="C144" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="24">
         <v>-100</v>
       </c>
-      <c r="E144" s="23" t="s">
+      <c r="E144" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F144" s="23" t="s">
+      <c r="F144" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="7" t="s">
@@ -5864,33 +5880,33 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
       <c r="G145" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22">
+      <c r="A146" s="23">
         <v>58</v>
       </c>
-      <c r="B146" s="23">
+      <c r="B146" s="24">
         <v>2</v>
       </c>
-      <c r="C146" s="24" t="s">
+      <c r="C146" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D146" s="24">
         <v>-100</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F146" s="23" t="s">
+      <c r="F146" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G146" s="7" t="s">
@@ -5901,12 +5917,12 @@
       </c>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
       <c r="G147" s="7" t="s">
         <v>196</v>
       </c>
@@ -6189,22 +6205,22 @@
       </c>
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="22">
+      <c r="A159" s="23">
         <v>64</v>
       </c>
-      <c r="B159" s="23">
+      <c r="B159" s="24">
         <v>5</v>
       </c>
-      <c r="C159" s="24" t="s">
+      <c r="C159" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D159" s="23">
+      <c r="D159" s="24">
         <v>-125</v>
       </c>
-      <c r="E159" s="23">
+      <c r="E159" s="24">
         <v>125</v>
       </c>
-      <c r="F159" s="23" t="s">
+      <c r="F159" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="7" t="s">
@@ -6212,12 +6228,12 @@
       </c>
     </row>
     <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
       <c r="G160" s="7" t="s">
         <v>231</v>
       </c>
@@ -6226,34 +6242,34 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
       <c r="G161" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
       <c r="G162" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
       <c r="G163" s="7" t="s">
         <v>234</v>
       </c>
@@ -6949,22 +6965,22 @@
       </c>
     </row>
     <row r="202" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="22" t="s">
+      <c r="A202" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="C202" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D202" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="F202" s="23" t="s">
+      <c r="F202" s="24" t="s">
         <v>286</v>
       </c>
       <c r="G202" s="7" t="s">
@@ -6975,84 +6991,54 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A203" s="22"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
       <c r="G203" s="7" t="s">
         <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="C159:C163"/>
+    <mergeCell ref="D159:D163"/>
+    <mergeCell ref="E159:E163"/>
+    <mergeCell ref="F159:F163"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="D115:D116"/>
@@ -7065,42 +7051,72 @@
     <mergeCell ref="E117:E118"/>
     <mergeCell ref="F117:F118"/>
     <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="C159:C163"/>
-    <mergeCell ref="D159:D163"/>
-    <mergeCell ref="E159:E163"/>
-    <mergeCell ref="F159:F163"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" location="cite_note-formula-3"/>
@@ -7133,7 +7149,7 @@
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10695,7 +10711,7 @@
       <c r="A141" t="s">
         <v>288</v>
       </c>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="25" t="s">
         <v>286</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -10707,7 +10723,7 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C142" s="25"/>
+      <c r="C142" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J142"/>
@@ -10715,7 +10731,7 @@
     <mergeCell ref="C141:C142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10725,7 +10741,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10763,13 +10779,13 @@
         <v>402</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10859,8 +10875,11 @@
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6" t="s">
+        <v>730</v>
+      </c>
       <c r="E6" t="s">
-        <v>638</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>411</v>
@@ -10875,7 +10894,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>668</v>
+        <v>666</v>
+      </c>
+      <c r="K6" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -10883,16 +10905,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>733</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>414</v>
@@ -10907,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -10924,7 +10946,7 @@
         <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F8" t="s">
         <v>418</v>
@@ -10939,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -10956,7 +10978,7 @@
         <v>417</v>
       </c>
       <c r="E9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F9" t="s">
         <v>421</v>
@@ -10971,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -10982,13 +11004,13 @@
         <v>423</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
         <v>424</v>
@@ -11003,10 +11025,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11049,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E12" t="s">
         <v>105</v>
@@ -12488,8 +12510,8 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" t="s">
-        <v>640</v>
+      <c r="D93" s="22" t="s">
+        <v>730</v>
       </c>
       <c r="E93" t="s">
         <v>105</v>
@@ -12507,7 +12529,10 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>674</v>
+        <v>672</v>
+      </c>
+      <c r="K93" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -12576,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -12751,7 +12776,7 @@
         <v>66</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="F104" t="s">
         <v>600</v>
@@ -13603,11 +13628,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13699,7 +13725,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -13738,7 +13764,7 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,'KDS PID'!$A$1:$B$164,2,)</f>
-        <v>Air Pressure</v>
+        <v>Air Pressure (Inlet / Manifold)</v>
       </c>
       <c r="F7" t="s">
         <v>414</v>
@@ -13885,7 +13911,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -13969,7 +13995,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -13987,7 +14013,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>13</v>
       </c>
@@ -14005,7 +14031,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -14023,7 +14049,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>15</v>
       </c>
@@ -14113,7 +14139,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -14134,7 +14160,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -14147,7 +14173,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>80</v>
       </c>
@@ -14160,7 +14186,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
@@ -14269,7 +14295,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>23</v>
       </c>
@@ -14283,7 +14309,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>24</v>
       </c>
@@ -14297,7 +14323,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>25</v>
       </c>
@@ -14311,7 +14337,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>26</v>
       </c>
@@ -14381,7 +14407,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -14393,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>119</v>
       </c>
@@ -14405,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
@@ -14429,7 +14455,7 @@
         <v>Offen</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>126</v>
       </c>
@@ -14441,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>30</v>
       </c>
@@ -14495,7 +14521,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>34</v>
       </c>
@@ -14509,7 +14535,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>35</v>
       </c>
@@ -14523,7 +14549,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>36</v>
       </c>
@@ -14537,7 +14563,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>37</v>
       </c>
@@ -14551,7 +14577,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>38</v>
       </c>
@@ -14565,7 +14591,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>39</v>
       </c>
@@ -14579,7 +14605,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -14593,7 +14619,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>142</v>
       </c>
@@ -14741,7 +14767,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45</v>
       </c>
@@ -14755,7 +14781,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>46</v>
       </c>
@@ -14769,7 +14795,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>47</v>
       </c>
@@ -14783,7 +14809,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>48</v>
       </c>
@@ -14797,7 +14823,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>49</v>
       </c>
@@ -14811,7 +14837,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>167</v>
       </c>
@@ -14825,7 +14851,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>169</v>
       </c>
@@ -14839,7 +14865,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>171</v>
       </c>
@@ -14853,7 +14879,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>173</v>
       </c>
@@ -14867,7 +14893,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>176</v>
       </c>
@@ -14881,7 +14907,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>178</v>
       </c>
@@ -14895,7 +14921,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>50</v>
       </c>
@@ -14909,7 +14935,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>51</v>
       </c>
@@ -14923,7 +14949,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>52</v>
       </c>
@@ -14937,7 +14963,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>53</v>
       </c>
@@ -14963,7 +14989,7 @@
         <v>Offen</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>55</v>
       </c>
@@ -14987,7 +15013,7 @@
         <v>Offen</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>57</v>
       </c>
@@ -15001,7 +15027,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>58</v>
       </c>
@@ -15015,7 +15041,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>59</v>
       </c>
@@ -15029,7 +15055,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>201</v>
       </c>
@@ -15232,7 +15258,7 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(A104,'KDS PID'!$A$1:$B$164,2,)</f>
-        <v>Offen</v>
+        <v>Choke???</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -15265,7 +15291,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>69</v>
       </c>
@@ -15279,7 +15305,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>239</v>
       </c>
@@ -15297,7 +15323,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>241</v>
       </c>
@@ -15315,7 +15341,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>243</v>
       </c>
@@ -15329,7 +15355,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
@@ -15371,7 +15397,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>70</v>
       </c>
@@ -15385,7 +15411,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>71</v>
       </c>
@@ -15399,7 +15425,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>72</v>
       </c>
@@ -15413,7 +15439,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>73</v>
       </c>
@@ -15427,7 +15453,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>74</v>
       </c>
@@ -15441,7 +15467,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>75</v>
       </c>
@@ -15455,7 +15481,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>76</v>
       </c>
@@ -15469,7 +15495,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>77</v>
       </c>
@@ -15483,7 +15509,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>78</v>
       </c>
@@ -15497,7 +15523,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>79</v>
       </c>
@@ -15511,7 +15537,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>261</v>
       </c>
@@ -15525,7 +15551,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>263</v>
       </c>
@@ -15539,7 +15565,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>264</v>
       </c>
@@ -15553,7 +15579,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>266</v>
       </c>
@@ -15567,7 +15593,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>268</v>
       </c>
@@ -15581,7 +15607,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>270</v>
       </c>
@@ -15619,7 +15645,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>81</v>
       </c>
@@ -15631,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>82</v>
       </c>
@@ -15655,7 +15681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>84</v>
       </c>
@@ -15667,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>85</v>
       </c>
@@ -15679,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>86</v>
       </c>
@@ -15691,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>87</v>
       </c>
@@ -15703,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>88</v>
       </c>
@@ -15715,7 +15741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>89</v>
       </c>
@@ -15727,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -15739,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>512</v>
       </c>
@@ -15751,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>513</v>
       </c>
@@ -15763,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>514</v>
       </c>
@@ -15775,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>515</v>
       </c>
@@ -15787,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>516</v>
       </c>
@@ -15799,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>90</v>
       </c>
@@ -15811,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>91</v>
       </c>
@@ -15823,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>92</v>
       </c>
@@ -15835,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>93</v>
       </c>
@@ -15847,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>94</v>
       </c>
@@ -15859,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>95</v>
       </c>
@@ -15871,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>96</v>
       </c>
@@ -15883,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>97</v>
       </c>
@@ -15895,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>98</v>
       </c>
@@ -15907,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>99</v>
       </c>
@@ -15919,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>517</v>
       </c>
@@ -15943,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>519</v>
       </c>
@@ -15955,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>520</v>
       </c>
@@ -15967,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>521</v>
       </c>
@@ -15979,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>522</v>
       </c>
@@ -16031,7 +16057,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E165"/>
+  <autoFilter ref="A1:E165">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -16039,12 +16071,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16141,7 +16174,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -16192,7 +16225,7 @@
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(A7,'KDS PID'!$A$1:$B$164,2,)</f>
-        <v>Air Pressure</v>
+        <v>Air Pressure (Inlet / Manifold)</v>
       </c>
       <c r="F7" t="s">
         <v>414</v>
@@ -16291,7 +16324,7 @@
         <v>552</v>
       </c>
       <c r="N10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -16384,7 +16417,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -16480,7 +16513,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -16495,7 +16528,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>13</v>
       </c>
@@ -16510,7 +16543,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -16525,7 +16558,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>15</v>
       </c>
@@ -16624,7 +16657,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -16642,7 +16675,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
@@ -16654,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>80</v>
       </c>
@@ -16666,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
@@ -16786,7 +16819,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>23</v>
       </c>
@@ -16802,7 +16835,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>24</v>
       </c>
@@ -16818,7 +16851,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>25</v>
       </c>
@@ -16834,7 +16867,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>26</v>
       </c>
@@ -16944,7 +16977,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>119</v>
       </c>
@@ -16956,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
@@ -16986,7 +17019,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>126</v>
       </c>
@@ -17073,7 +17106,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>34</v>
       </c>
@@ -17086,7 +17119,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>35</v>
       </c>
@@ -17099,7 +17132,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>36</v>
       </c>
@@ -17112,7 +17145,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>37</v>
       </c>
@@ -17125,7 +17158,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>38</v>
       </c>
@@ -17138,7 +17171,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>39</v>
       </c>
@@ -17151,7 +17184,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>141</v>
       </c>
@@ -17164,7 +17197,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>142</v>
       </c>
@@ -17355,7 +17388,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45</v>
       </c>
@@ -17371,7 +17404,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>46</v>
       </c>
@@ -17387,7 +17420,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>47</v>
       </c>
@@ -17403,7 +17436,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>48</v>
       </c>
@@ -17416,7 +17449,7 @@
       </c>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>49</v>
       </c>
@@ -17432,7 +17465,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>167</v>
       </c>
@@ -17445,7 +17478,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>169</v>
       </c>
@@ -17461,7 +17494,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>171</v>
       </c>
@@ -17474,7 +17507,7 @@
       </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>173</v>
       </c>
@@ -17487,7 +17520,7 @@
       </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>176</v>
       </c>
@@ -17500,7 +17533,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>178</v>
       </c>
@@ -17513,7 +17546,7 @@
       </c>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>50</v>
       </c>
@@ -17526,7 +17559,7 @@
       </c>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>51</v>
       </c>
@@ -17539,7 +17572,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>52</v>
       </c>
@@ -17552,7 +17585,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>53</v>
       </c>
@@ -17580,7 +17613,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>55</v>
       </c>
@@ -17610,7 +17643,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>57</v>
       </c>
@@ -17623,7 +17656,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>58</v>
       </c>
@@ -17636,7 +17669,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>59</v>
       </c>
@@ -17649,7 +17682,7 @@
       </c>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>201</v>
       </c>
@@ -17911,7 +17944,7 @@
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(A104,'KDS PID'!$A$1:$B$164,2,)</f>
-        <v>Offen</v>
+        <v>Choke???</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104">
@@ -17977,7 +18010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>69</v>
       </c>
@@ -17993,7 +18026,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>239</v>
       </c>
@@ -18008,7 +18041,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>241</v>
       </c>
@@ -18026,7 +18059,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>243</v>
       </c>
@@ -18039,7 +18072,7 @@
       </c>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
@@ -18109,7 +18142,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>71</v>
       </c>
@@ -18122,7 +18155,7 @@
       </c>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>72</v>
       </c>
@@ -18135,7 +18168,7 @@
       </c>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>73</v>
       </c>
@@ -18148,7 +18181,7 @@
       </c>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>74</v>
       </c>
@@ -18161,7 +18194,7 @@
       </c>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>75</v>
       </c>
@@ -18174,7 +18207,7 @@
       </c>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>76</v>
       </c>
@@ -18187,7 +18220,7 @@
       </c>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>77</v>
       </c>
@@ -18200,7 +18233,7 @@
       </c>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>78</v>
       </c>
@@ -18213,7 +18246,7 @@
       </c>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>79</v>
       </c>
@@ -18226,7 +18259,7 @@
       </c>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>261</v>
       </c>
@@ -18239,7 +18272,7 @@
       </c>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>263</v>
       </c>
@@ -18252,7 +18285,7 @@
       </c>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>264</v>
       </c>
@@ -18265,7 +18298,7 @@
       </c>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>266</v>
       </c>
@@ -18278,7 +18311,7 @@
       </c>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>268</v>
       </c>
@@ -18291,7 +18324,7 @@
       </c>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>270</v>
       </c>
@@ -18328,7 +18361,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>81</v>
       </c>
@@ -18343,7 +18376,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>82</v>
       </c>
@@ -18355,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>83</v>
       </c>
@@ -18367,7 +18400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>84</v>
       </c>
@@ -18379,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>85</v>
       </c>
@@ -18391,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>86</v>
       </c>
@@ -18403,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>87</v>
       </c>
@@ -18415,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>88</v>
       </c>
@@ -18427,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>89</v>
       </c>
@@ -18442,7 +18475,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -18454,7 +18487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>512</v>
       </c>
@@ -18469,7 +18502,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>513</v>
       </c>
@@ -18481,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>514</v>
       </c>
@@ -18493,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>515</v>
       </c>
@@ -18505,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>516</v>
       </c>
@@ -18517,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>90</v>
       </c>
@@ -18529,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>91</v>
       </c>
@@ -18541,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>92</v>
       </c>
@@ -18553,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>93</v>
       </c>
@@ -18565,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>94</v>
       </c>
@@ -18577,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>95</v>
       </c>
@@ -18589,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>96</v>
       </c>
@@ -18601,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>97</v>
       </c>
@@ -18613,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>98</v>
       </c>
@@ -18625,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>99</v>
       </c>
@@ -18637,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>517</v>
       </c>
@@ -18667,7 +18700,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>519</v>
       </c>
@@ -18679,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>520</v>
       </c>
@@ -18691,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>521</v>
       </c>
@@ -18703,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>522</v>
       </c>
@@ -18761,9 +18794,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F165"/>
+  <autoFilter ref="A1:F165">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18788,33 +18827,33 @@
         <v>291</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>526</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>657</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D2">
         <v>222</v>
@@ -18823,13 +18862,13 @@
         <v>1035</v>
       </c>
       <c r="G2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H2" t="s">
         <v>664</v>
       </c>
-      <c r="H2" t="s">
-        <v>666</v>
-      </c>
       <c r="I2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -18837,10 +18876,10 @@
         <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D3">
         <v>182</v>
@@ -18849,13 +18888,13 @@
         <v>1464</v>
       </c>
       <c r="G3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -18863,10 +18902,10 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D4">
         <v>181</v>
@@ -18880,10 +18919,10 @@
         <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D5">
         <v>207</v>
@@ -18892,13 +18931,13 @@
         <v>4023</v>
       </c>
       <c r="G5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I5" t="s">
         <v>661</v>
-      </c>
-      <c r="I5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18906,10 +18945,10 @@
         <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D6">
         <v>181</v>
@@ -18920,10 +18959,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C7" t="s">
         <v>270</v>
@@ -18937,22 +18976,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -18966,7 +19005,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView windowProtection="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18978,51 +19017,51 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
-      <c r="C1" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="H1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>291</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>526</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>526</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>526</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C3" t="s">
         <v>544</v>
@@ -19031,16 +19070,16 @@
         <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F3">
         <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H3">
-        <v>1027</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -19051,33 +19090,33 @@
         <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D4">
         <v>206192</v>
       </c>
       <c r="E4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F4">
         <v>161128</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H4">
         <v>162000</v>
       </c>
       <c r="J4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -19098,18 +19137,18 @@
         <v>120</v>
       </c>
       <c r="J5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C6">
         <v>43</v>
@@ -19130,18 +19169,18 @@
         <v>68</v>
       </c>
       <c r="J6" t="s">
+        <v>701</v>
+      </c>
+      <c r="K6" t="s">
         <v>703</v>
-      </c>
-      <c r="K6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C7" t="s">
         <v>564</v>
@@ -19162,13 +19201,13 @@
         <v>206</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -19176,7 +19215,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C8" t="s">
         <v>518</v>
@@ -19202,7 +19241,7 @@
         <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C9">
         <v>51</v>
@@ -19211,13 +19250,13 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F9">
         <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H9">
         <v>180</v>
@@ -19228,7 +19267,7 @@
         <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C10" t="s">
         <v>518</v>
@@ -19237,13 +19276,13 @@
         <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F10">
         <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H10">
         <v>182</v>
@@ -19252,18 +19291,18 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C12" t="s">
         <v>544</v>
@@ -19272,13 +19311,13 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H12">
         <v>220</v>
@@ -19292,30 +19331,30 @@
         <v>413</v>
       </c>
       <c r="C13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D13" t="s">
+        <v>713</v>
+      </c>
+      <c r="E13" t="s">
+        <v>708</v>
+      </c>
+      <c r="F13" t="s">
         <v>715</v>
       </c>
-      <c r="E13" t="s">
-        <v>710</v>
-      </c>
-      <c r="F13" t="s">
-        <v>717</v>
-      </c>
       <c r="G13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C14">
         <v>42</v>
@@ -19336,18 +19375,18 @@
         <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M14" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C15">
         <v>42</v>
@@ -19373,7 +19412,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C16">
         <v>99</v>
@@ -19394,13 +19433,13 @@
         <v>156</v>
       </c>
       <c r="J16" t="s">
+        <v>717</v>
+      </c>
+      <c r="K16" t="s">
         <v>719</v>
       </c>
-      <c r="K16" t="s">
-        <v>721</v>
-      </c>
       <c r="L16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -19408,7 +19447,7 @@
         <v>203</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -19417,19 +19456,19 @@
         <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F17">
         <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H17">
         <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -19443,10 +19482,29 @@
       <c r="A21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22">
+        <v>201</v>
+      </c>
+      <c r="C22">
+        <v>405</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
